--- a/map0.xlsx
+++ b/map0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpit\coding\twiet\schoolSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D5AB8-3279-4571-949E-EABD387042F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067AF733-69D3-4270-892D-F5D23C4C1CAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7185" yWindow="1035" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,6 +65,12 @@
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,6 +155,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,8 +407,8 @@
   </sheetPr>
   <dimension ref="G1:CU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="BA48" sqref="BA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1015,9 +1024,11 @@
       <c r="BB26" s="11"/>
       <c r="BC26" s="11"/>
       <c r="BD26" s="4"/>
+      <c r="BQ26" s="4"/>
       <c r="BR26" s="5"/>
       <c r="BS26" s="5"/>
       <c r="BT26" s="5"/>
+      <c r="BU26" s="4"/>
     </row>
     <row r="27" spans="43:90" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AQ27" s="4"/>
@@ -1028,9 +1039,11 @@
       <c r="BB27" s="11"/>
       <c r="BC27" s="11"/>
       <c r="BD27" s="4"/>
+      <c r="BQ27" s="4"/>
       <c r="BR27" s="5"/>
       <c r="BS27" s="5"/>
       <c r="BT27" s="5"/>
+      <c r="BU27" s="4"/>
     </row>
     <row r="28" spans="43:90" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AQ28" s="10"/>
@@ -1041,9 +1054,11 @@
       <c r="BB28" s="10"/>
       <c r="BC28" s="10"/>
       <c r="BD28" s="10"/>
+      <c r="BQ28" s="4"/>
       <c r="BR28" s="5"/>
       <c r="BS28" s="5"/>
       <c r="BT28" s="5"/>
+      <c r="BU28" s="4"/>
     </row>
     <row r="29" spans="43:90" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AQ29" s="4"/>
@@ -1058,6 +1073,7 @@
       <c r="BL29" s="4"/>
       <c r="BM29" s="4"/>
       <c r="BN29" s="4"/>
+      <c r="BQ29" s="4"/>
       <c r="BR29" s="4"/>
       <c r="BS29" s="4"/>
       <c r="BT29" s="4"/>
@@ -1225,6 +1241,11 @@
     </row>
     <row r="45" spans="63:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK45" s="16"/>
+      <c r="BN45" s="4"/>
+      <c r="BO45" s="4"/>
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="4"/>
+      <c r="BR45" s="4"/>
       <c r="BW45" s="4"/>
       <c r="BX45" s="7"/>
       <c r="BY45" s="7"/>
@@ -1250,9 +1271,11 @@
     </row>
     <row r="46" spans="63:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK46" s="16"/>
+      <c r="BN46" s="4"/>
       <c r="BO46" s="5"/>
       <c r="BP46" s="5"/>
       <c r="BQ46" s="17"/>
+      <c r="BR46" s="4"/>
       <c r="BW46" s="4"/>
       <c r="BX46" s="7"/>
       <c r="BY46" s="7"/>
@@ -1278,9 +1301,11 @@
     </row>
     <row r="47" spans="63:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK47" s="16"/>
+      <c r="BN47" s="5"/>
       <c r="BO47" s="5"/>
       <c r="BP47" s="5"/>
       <c r="BQ47" s="17"/>
+      <c r="BR47" s="4"/>
       <c r="BW47" s="4"/>
       <c r="BX47" s="7"/>
       <c r="BY47" s="7"/>
@@ -1309,6 +1334,7 @@
       <c r="BO48" s="5"/>
       <c r="BP48" s="5"/>
       <c r="BQ48" s="17"/>
+      <c r="BR48" s="4"/>
       <c r="BW48" s="4"/>
       <c r="BX48" s="4"/>
       <c r="BY48" s="4"/>
@@ -1334,6 +1360,9 @@
     </row>
     <row r="49" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK49" s="16"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="4"/>
+      <c r="BR49" s="4"/>
       <c r="BW49" s="4"/>
       <c r="BX49" s="7"/>
       <c r="BY49" s="7"/>
@@ -1405,28 +1434,34 @@
       <c r="CO51" s="13"/>
       <c r="CP51" s="13"/>
       <c r="CQ51" s="12"/>
-      <c r="CU51" s="16"/>
+      <c r="CR51" s="4"/>
+      <c r="CS51" s="4"/>
+      <c r="CT51" s="4"/>
+      <c r="CU51" s="4"/>
     </row>
     <row r="52" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK52" s="16"/>
+      <c r="CQ52" s="4"/>
       <c r="CR52" s="5"/>
       <c r="CS52" s="5"/>
       <c r="CT52" s="5"/>
-      <c r="CU52" s="16"/>
+      <c r="CU52" s="4"/>
     </row>
     <row r="53" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK53" s="16"/>
+      <c r="CQ53" s="4"/>
       <c r="CR53" s="5"/>
       <c r="CS53" s="5"/>
       <c r="CT53" s="5"/>
-      <c r="CU53" s="16"/>
+      <c r="CU53" s="4"/>
     </row>
     <row r="54" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BK54" s="16"/>
+      <c r="CQ54" s="4"/>
       <c r="CR54" s="17"/>
       <c r="CS54" s="17"/>
       <c r="CT54" s="17"/>
-      <c r="CU54" s="16"/>
+      <c r="CU54" s="4"/>
     </row>
     <row r="55" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BP55" s="16"/>
@@ -1439,16 +1474,153 @@
     </row>
     <row r="56" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA58" s="21"/>
+      <c r="BB58" s="21"/>
+      <c r="BC58" s="21"/>
+      <c r="BD58" s="21"/>
+      <c r="BE58" s="21"/>
+      <c r="BF58" s="21"/>
+      <c r="BG58" s="21"/>
+      <c r="BH58" s="21"/>
+      <c r="BI58" s="21"/>
+      <c r="BJ58" s="21"/>
+      <c r="BK58" s="21"/>
+      <c r="BL58" s="21"/>
+      <c r="BM58" s="21"/>
+      <c r="BN58" s="21"/>
+    </row>
+    <row r="59" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA59" s="21"/>
+      <c r="BB59" s="21"/>
+      <c r="BC59" s="21"/>
+      <c r="BD59" s="21"/>
+      <c r="BE59" s="21"/>
+      <c r="BF59" s="21"/>
+      <c r="BG59" s="21"/>
+      <c r="BH59" s="21"/>
+      <c r="BI59" s="21"/>
+      <c r="BJ59" s="21"/>
+      <c r="BK59" s="21"/>
+      <c r="BL59" s="21"/>
+      <c r="BM59" s="21"/>
+      <c r="BN59" s="21"/>
+    </row>
+    <row r="60" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="BA60" s="21"/>
+      <c r="BB60" s="21"/>
+      <c r="BC60" s="21"/>
+      <c r="BD60" s="21"/>
+      <c r="BE60" s="20"/>
+      <c r="BF60" s="4"/>
+      <c r="BG60" s="4"/>
+      <c r="BH60" s="4"/>
+      <c r="BI60" s="4"/>
+      <c r="BJ60" s="4"/>
+      <c r="BK60" s="4"/>
+      <c r="BL60" s="4"/>
+      <c r="BM60" s="4"/>
+      <c r="BN60" s="4"/>
+    </row>
+    <row r="61" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V61" s="4"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="4"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="20"/>
+      <c r="BF61" s="4"/>
+      <c r="BG61" s="15"/>
+      <c r="BH61" s="15"/>
+      <c r="BI61" s="15"/>
+      <c r="BJ61" s="4"/>
+      <c r="BK61" s="15"/>
+      <c r="BL61" s="15"/>
+      <c r="BM61" s="15"/>
+      <c r="BN61" s="4"/>
+    </row>
+    <row r="62" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="4"/>
+      <c r="BA62" s="21"/>
+      <c r="BB62" s="21"/>
+      <c r="BC62" s="21"/>
+      <c r="BD62" s="21"/>
+      <c r="BE62" s="20"/>
+      <c r="BF62" s="4"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="15"/>
+      <c r="BI62" s="15"/>
+      <c r="BJ62" s="4"/>
+      <c r="BK62" s="15"/>
+      <c r="BL62" s="15"/>
+      <c r="BM62" s="15"/>
+      <c r="BN62" s="4"/>
+      <c r="BP62" s="19"/>
+      <c r="BQ62" s="19"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="4"/>
+      <c r="BT62" s="4"/>
+      <c r="BU62" s="4"/>
+    </row>
     <row r="63" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O63" s="4"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="4"/>
+      <c r="BA63" s="21"/>
+      <c r="BB63" s="21"/>
+      <c r="BC63" s="21"/>
+      <c r="BD63" s="21"/>
+      <c r="BE63" s="20"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="15"/>
+      <c r="BH63" s="15"/>
+      <c r="BI63" s="15"/>
+      <c r="BJ63" s="4"/>
+      <c r="BK63" s="15"/>
+      <c r="BL63" s="15"/>
+      <c r="BM63" s="15"/>
+      <c r="BN63" s="4"/>
+      <c r="BP63" s="19"/>
+      <c r="BQ63" s="20"/>
       <c r="BR63" s="5"/>
       <c r="BS63" s="5"/>
       <c r="BT63" s="5"/>
@@ -1459,6 +1631,16 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
+      <c r="BA64" s="21"/>
+      <c r="BB64" s="21"/>
+      <c r="BC64" s="21"/>
+      <c r="BD64" s="21"/>
+      <c r="BE64" s="19"/>
+      <c r="BF64" s="19"/>
+      <c r="BG64" s="19"/>
+      <c r="BH64" s="19"/>
+      <c r="BP64" s="19"/>
+      <c r="BQ64" s="20"/>
       <c r="BR64" s="5"/>
       <c r="BS64" s="5"/>
       <c r="BT64" s="5"/>
@@ -1469,6 +1651,21 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="BB65" s="19"/>
+      <c r="BC65" s="19"/>
+      <c r="BD65" s="19"/>
+      <c r="BE65" s="19"/>
+      <c r="BF65" s="19"/>
+      <c r="BG65" s="19"/>
+      <c r="BH65" s="19"/>
+      <c r="BP65" s="19"/>
+      <c r="BQ65" s="20"/>
       <c r="BR65" s="5"/>
       <c r="BS65" s="5"/>
       <c r="BT65" s="5"/>
@@ -1483,10 +1680,25 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="19"/>
+      <c r="BB66" s="19"/>
+      <c r="BC66" s="19"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="20"/>
+      <c r="BF66" s="20"/>
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="20"/>
       <c r="BK66" s="12"/>
       <c r="BL66" s="4"/>
       <c r="BM66" s="4"/>
       <c r="BN66" s="4"/>
+      <c r="BP66" s="19"/>
+      <c r="BQ66" s="20"/>
       <c r="BR66" s="4"/>
       <c r="BS66" s="4"/>
       <c r="BT66" s="4"/>
@@ -1501,16 +1713,22 @@
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
+      <c r="AB67" s="4"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
+      <c r="AF67" s="4"/>
+      <c r="BD67" s="4"/>
       <c r="BE67" s="5"/>
       <c r="BF67" s="5"/>
       <c r="BG67" s="5"/>
+      <c r="BH67" s="4"/>
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
       <c r="BM67" s="15"/>
       <c r="BN67" s="4"/>
+      <c r="BP67" s="19"/>
+      <c r="BQ67" s="19"/>
       <c r="BR67" s="15"/>
       <c r="BS67" s="15"/>
       <c r="BT67" s="15"/>
@@ -1525,12 +1743,16 @@
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
+      <c r="AB68" s="4"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
+      <c r="AF68" s="4"/>
+      <c r="BD68" s="4"/>
       <c r="BE68" s="5"/>
       <c r="BF68" s="5"/>
       <c r="BG68" s="5"/>
+      <c r="BH68" s="4"/>
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
       <c r="BM68" s="15"/>
@@ -1549,12 +1771,16 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
+      <c r="AB69" s="4"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
+      <c r="AF69" s="4"/>
+      <c r="BD69" s="4"/>
       <c r="BE69" s="5"/>
       <c r="BF69" s="5"/>
       <c r="BG69" s="5"/>
+      <c r="BH69" s="4"/>
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
       <c r="BM69" s="15"/>
@@ -1573,6 +1799,16 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+      <c r="BF70" s="4"/>
+      <c r="BG70" s="4"/>
+      <c r="BH70" s="4"/>
       <c r="BK70" s="4"/>
       <c r="BL70" s="4"/>
       <c r="BM70" s="4"/>
@@ -2164,6 +2400,16 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
+      <c r="BD102" s="4"/>
+      <c r="BE102" s="4"/>
+      <c r="BF102" s="4"/>
+      <c r="BG102" s="4"/>
+      <c r="BH102" s="4"/>
       <c r="BK102" s="4"/>
       <c r="BL102" s="4"/>
       <c r="BM102" s="4"/>
@@ -2182,12 +2428,16 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
+      <c r="AB103" s="4"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
+      <c r="AF103" s="4"/>
+      <c r="BD103" s="4"/>
       <c r="BE103" s="5"/>
       <c r="BF103" s="5"/>
       <c r="BG103" s="5"/>
+      <c r="BH103" s="4"/>
       <c r="BK103" s="15"/>
       <c r="BL103" s="15"/>
       <c r="BM103" s="15"/>
@@ -2206,12 +2456,16 @@
       <c r="W104" s="15"/>
       <c r="X104" s="15"/>
       <c r="Y104" s="15"/>
+      <c r="AB104" s="4"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
+      <c r="AF104" s="4"/>
+      <c r="BD104" s="4"/>
       <c r="BE104" s="5"/>
       <c r="BF104" s="5"/>
       <c r="BG104" s="5"/>
+      <c r="BH104" s="4"/>
       <c r="BK104" s="15"/>
       <c r="BL104" s="15"/>
       <c r="BM104" s="15"/>
@@ -2226,20 +2480,27 @@
       <c r="P105" s="15"/>
       <c r="Q105" s="15"/>
       <c r="R105" s="15"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
       <c r="V105" s="4"/>
       <c r="W105" s="15"/>
       <c r="X105" s="15"/>
       <c r="Y105" s="15"/>
+      <c r="AB105" s="4"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
+      <c r="AF105" s="4"/>
+      <c r="BD105" s="4"/>
       <c r="BE105" s="5"/>
       <c r="BF105" s="5"/>
       <c r="BG105" s="5"/>
+      <c r="BH105" s="4"/>
       <c r="BK105" s="15"/>
       <c r="BL105" s="15"/>
       <c r="BM105" s="15"/>
       <c r="BN105" s="4"/>
+      <c r="BQ105" s="19"/>
       <c r="BR105" s="15"/>
       <c r="BS105" s="15"/>
       <c r="BT105" s="15"/>
@@ -2250,6 +2511,9 @@
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
@@ -2258,6 +2522,7 @@
       <c r="BL106" s="4"/>
       <c r="BM106" s="4"/>
       <c r="BN106" s="4"/>
+      <c r="BQ106" s="20"/>
       <c r="BR106" s="4"/>
       <c r="BS106" s="4"/>
       <c r="BT106" s="4"/>
@@ -2268,6 +2533,10 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="19"/>
+      <c r="BQ107" s="20"/>
       <c r="BR107" s="5"/>
       <c r="BS107" s="5"/>
       <c r="BT107" s="5"/>
@@ -2278,6 +2547,10 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="19"/>
+      <c r="BQ108" s="20"/>
       <c r="BR108" s="5"/>
       <c r="BS108" s="5"/>
       <c r="BT108" s="5"/>
@@ -2288,17 +2561,116 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="4"/>
+      <c r="BE109" s="19"/>
+      <c r="BF109" s="4"/>
+      <c r="BG109" s="15"/>
+      <c r="BH109" s="15"/>
+      <c r="BI109" s="15"/>
+      <c r="BJ109" s="4"/>
+      <c r="BK109" s="15"/>
+      <c r="BL109" s="15"/>
+      <c r="BM109" s="15"/>
+      <c r="BN109" s="4"/>
+      <c r="BQ109" s="20"/>
       <c r="BR109" s="5"/>
       <c r="BS109" s="5"/>
       <c r="BT109" s="5"/>
       <c r="BU109" s="4"/>
     </row>
-    <row r="110" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="15"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="15"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="15"/>
+      <c r="AD110" s="4"/>
+      <c r="BE110" s="19"/>
+      <c r="BF110" s="4"/>
+      <c r="BG110" s="15"/>
+      <c r="BH110" s="15"/>
+      <c r="BI110" s="15"/>
+      <c r="BJ110" s="4"/>
+      <c r="BK110" s="15"/>
+      <c r="BL110" s="15"/>
+      <c r="BM110" s="15"/>
+      <c r="BN110" s="4"/>
+      <c r="BQ110" s="19"/>
+      <c r="BR110" s="4"/>
+      <c r="BS110" s="4"/>
+      <c r="BT110" s="4"/>
+      <c r="BU110" s="4"/>
+    </row>
+    <row r="111" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="15"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="15"/>
+      <c r="AD111" s="4"/>
+      <c r="BF111" s="4"/>
+      <c r="BG111" s="15"/>
+      <c r="BH111" s="15"/>
+      <c r="BI111" s="15"/>
+      <c r="BJ111" s="4"/>
+      <c r="BK111" s="15"/>
+      <c r="BL111" s="15"/>
+      <c r="BM111" s="15"/>
+      <c r="BN111" s="4"/>
+      <c r="BQ111" s="19"/>
+    </row>
+    <row r="112" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="BF112" s="4"/>
+      <c r="BG112" s="4"/>
+      <c r="BH112" s="4"/>
+      <c r="BI112" s="4"/>
+      <c r="BJ112" s="4"/>
+      <c r="BK112" s="4"/>
+      <c r="BL112" s="4"/>
+      <c r="BM112" s="4"/>
+      <c r="BN112" s="4"/>
+    </row>
     <row r="113" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2309,7 +2681,9 @@
   </sheetPr>
   <dimension ref="O1:CU112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2364,18 +2738,26 @@
       <c r="BD24" s="2"/>
     </row>
     <row r="25" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="4"/>
-      <c r="BO25" s="4"/>
-      <c r="BP25" s="4"/>
-      <c r="BQ25" s="4"/>
+      <c r="BL25" s="19"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="19"/>
+      <c r="BS25" s="19"/>
+      <c r="BT25" s="19"/>
     </row>
     <row r="26" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL26" s="19"/>
       <c r="BM26" s="4"/>
-      <c r="BN26" s="5"/>
-      <c r="BO26" s="5"/>
-      <c r="BP26" s="5"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
       <c r="BQ26" s="4"/>
+      <c r="BR26" s="19"/>
+      <c r="BS26" s="19"/>
+      <c r="BT26" s="19"/>
     </row>
     <row r="27" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BM27" s="4"/>
@@ -2385,14 +2767,6 @@
       <c r="BQ27" s="4"/>
     </row>
     <row r="28" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
       <c r="BM28" s="4"/>
       <c r="BN28" s="5"/>
       <c r="BO28" s="5"/>
@@ -2400,23 +2774,28 @@
       <c r="BQ28" s="4"/>
     </row>
     <row r="29" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BJ29" s="4"/>
-      <c r="BK29" s="4"/>
-      <c r="BL29" s="4"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
       <c r="BM29" s="4"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
       <c r="BQ29" s="4"/>
-      <c r="BR29" s="4"/>
-      <c r="BS29" s="4"/>
-      <c r="BT29" s="4"/>
     </row>
     <row r="30" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ30" s="4"/>
-      <c r="BK30" s="7"/>
-      <c r="BL30" s="7"/>
-      <c r="BM30" s="7"/>
-      <c r="BQ30" s="7"/>
-      <c r="BR30" s="7"/>
-      <c r="BS30" s="7"/>
+      <c r="BK30" s="4"/>
+      <c r="BL30" s="4"/>
+      <c r="BM30" s="4"/>
+      <c r="BQ30" s="4"/>
+      <c r="BR30" s="4"/>
+      <c r="BS30" s="4"/>
       <c r="BT30" s="4"/>
     </row>
     <row r="31" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2430,10 +2809,6 @@
       <c r="BT31" s="4"/>
     </row>
     <row r="32" spans="43:72" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
@@ -2443,27 +2818,31 @@
       <c r="BS32" s="7"/>
       <c r="BT32" s="4"/>
     </row>
-    <row r="33" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
       <c r="BJ33" s="4"/>
-      <c r="BK33" s="4"/>
-      <c r="BL33" s="4"/>
-      <c r="BM33" s="4"/>
-      <c r="BQ33" s="4"/>
-      <c r="BR33" s="4"/>
-      <c r="BS33" s="4"/>
+      <c r="BK33" s="7"/>
+      <c r="BL33" s="7"/>
+      <c r="BM33" s="7"/>
+      <c r="BQ33" s="7"/>
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7"/>
       <c r="BT33" s="4"/>
     </row>
-    <row r="34" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ34" s="4"/>
-      <c r="BK34" s="7"/>
-      <c r="BL34" s="7"/>
-      <c r="BM34" s="7"/>
-      <c r="BQ34" s="7"/>
-      <c r="BR34" s="7"/>
-      <c r="BS34" s="7"/>
+      <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+      <c r="BS34" s="4"/>
       <c r="BT34" s="4"/>
     </row>
-    <row r="35" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ35" s="4"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
@@ -2473,7 +2852,7 @@
       <c r="BS35" s="7"/>
       <c r="BT35" s="4"/>
     </row>
-    <row r="36" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ36" s="4"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
@@ -2483,27 +2862,27 @@
       <c r="BS36" s="7"/>
       <c r="BT36" s="4"/>
     </row>
-    <row r="37" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ37" s="4"/>
-      <c r="BK37" s="4"/>
-      <c r="BL37" s="4"/>
-      <c r="BM37" s="4"/>
-      <c r="BQ37" s="4"/>
-      <c r="BR37" s="4"/>
-      <c r="BS37" s="4"/>
+      <c r="BK37" s="7"/>
+      <c r="BL37" s="7"/>
+      <c r="BM37" s="7"/>
+      <c r="BQ37" s="7"/>
+      <c r="BR37" s="7"/>
+      <c r="BS37" s="7"/>
       <c r="BT37" s="4"/>
     </row>
-    <row r="38" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BJ38" s="8"/>
-      <c r="BK38" s="7"/>
-      <c r="BL38" s="7"/>
-      <c r="BM38" s="7"/>
-      <c r="BQ38" s="7"/>
-      <c r="BR38" s="7"/>
-      <c r="BS38" s="7"/>
+    <row r="38" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+      <c r="BS38" s="4"/>
       <c r="BT38" s="4"/>
     </row>
-    <row r="39" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
@@ -2513,7 +2892,7 @@
       <c r="BS39" s="7"/>
       <c r="BT39" s="4"/>
     </row>
-    <row r="40" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
@@ -2523,89 +2902,70 @@
       <c r="BS40" s="7"/>
       <c r="BT40" s="4"/>
     </row>
-    <row r="41" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ41" s="8"/>
-      <c r="BK41" s="4"/>
-      <c r="BL41" s="4"/>
-      <c r="BM41" s="4"/>
-      <c r="BQ41" s="4"/>
-      <c r="BR41" s="4"/>
-      <c r="BS41" s="4"/>
-      <c r="BT41" s="8"/>
-      <c r="BU41" s="8"/>
-      <c r="BV41" s="4"/>
-      <c r="BW41" s="4"/>
-      <c r="BX41" s="4"/>
-      <c r="BY41" s="4"/>
-      <c r="BZ41" s="4"/>
-      <c r="CA41" s="4"/>
-      <c r="CB41" s="4"/>
-      <c r="CC41" s="4"/>
-      <c r="CD41" s="4"/>
-      <c r="CE41" s="4"/>
-      <c r="CF41" s="4"/>
-      <c r="CG41" s="4"/>
-      <c r="CH41" s="4"/>
-      <c r="CI41" s="4"/>
-      <c r="CJ41" s="4"/>
-      <c r="CK41" s="4"/>
-      <c r="CL41" s="4"/>
-      <c r="CM41" s="4"/>
-      <c r="CN41" s="4"/>
-      <c r="CO41" s="4"/>
-      <c r="CP41" s="4"/>
-      <c r="CQ41" s="4"/>
-      <c r="CR41" s="8"/>
-      <c r="CS41" s="8"/>
-      <c r="CT41" s="8"/>
-      <c r="CU41" s="9"/>
-    </row>
-    <row r="42" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BK41" s="7"/>
+      <c r="BL41" s="7"/>
+      <c r="BM41" s="7"/>
+      <c r="BQ41" s="7"/>
+      <c r="BR41" s="7"/>
+      <c r="BS41" s="7"/>
+      <c r="BT41" s="4"/>
+    </row>
+    <row r="42" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ42" s="8"/>
+      <c r="BK42" s="4"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BQ42" s="4"/>
+      <c r="BR42" s="4"/>
+      <c r="BS42" s="4"/>
+      <c r="BT42" s="8"/>
+      <c r="BU42" s="8"/>
+      <c r="BV42" s="4"/>
+      <c r="BW42" s="4"/>
+      <c r="BX42" s="4"/>
+      <c r="BY42" s="4"/>
+      <c r="BZ42" s="4"/>
+      <c r="CA42" s="4"/>
+      <c r="CB42" s="4"/>
+      <c r="CC42" s="4"/>
+      <c r="CD42" s="4"/>
+      <c r="CE42" s="4"/>
+      <c r="CF42" s="4"/>
+      <c r="CG42" s="4"/>
+      <c r="CH42" s="4"/>
+      <c r="CI42" s="4"/>
+      <c r="CJ42" s="4"/>
+      <c r="CK42" s="4"/>
+      <c r="CL42" s="4"/>
+      <c r="CM42" s="4"/>
+      <c r="CN42" s="4"/>
+      <c r="CO42" s="4"/>
+      <c r="CP42" s="4"/>
+      <c r="CQ42" s="4"/>
+      <c r="CR42" s="8"/>
+      <c r="CS42" s="8"/>
       <c r="CT42" s="8"/>
       <c r="CU42" s="9"/>
     </row>
-    <row r="43" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ43" s="8"/>
       <c r="CT43" s="8"/>
       <c r="CU43" s="9"/>
     </row>
-    <row r="44" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ44" s="8"/>
       <c r="CT44" s="8"/>
       <c r="CU44" s="9"/>
     </row>
-    <row r="45" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ45" s="8"/>
-      <c r="BV45" s="4"/>
-      <c r="BW45" s="7"/>
-      <c r="BX45" s="7"/>
-      <c r="BY45" s="7"/>
-      <c r="BZ45" s="4"/>
-      <c r="CA45" s="7"/>
-      <c r="CB45" s="7"/>
-      <c r="CC45" s="7"/>
-      <c r="CD45" s="4"/>
-      <c r="CE45" s="7"/>
-      <c r="CF45" s="7"/>
-      <c r="CG45" s="7"/>
-      <c r="CH45" s="4"/>
-      <c r="CI45" s="7"/>
-      <c r="CJ45" s="7"/>
-      <c r="CK45" s="7"/>
-      <c r="CL45" s="4"/>
-      <c r="CM45" s="7"/>
-      <c r="CN45" s="7"/>
-      <c r="CO45" s="7"/>
-      <c r="CP45" s="4"/>
       <c r="CT45" s="8"/>
       <c r="CU45" s="9"/>
     </row>
-    <row r="46" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ46" s="8"/>
-      <c r="BN46" s="5"/>
-      <c r="BO46" s="5"/>
-      <c r="BP46" s="5"/>
       <c r="BV46" s="4"/>
       <c r="BW46" s="7"/>
       <c r="BX46" s="7"/>
@@ -2630,7 +2990,7 @@
       <c r="CT46" s="8"/>
       <c r="CU46" s="9"/>
     </row>
-    <row r="47" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ47" s="8"/>
       <c r="BN47" s="5"/>
       <c r="BO47" s="5"/>
@@ -2659,57 +3019,60 @@
       <c r="CT47" s="8"/>
       <c r="CU47" s="9"/>
     </row>
-    <row r="48" spans="62:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="43:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ48" s="8"/>
       <c r="BN48" s="5"/>
       <c r="BO48" s="5"/>
       <c r="BP48" s="5"/>
       <c r="BV48" s="4"/>
-      <c r="BW48" s="4"/>
-      <c r="BX48" s="4"/>
-      <c r="BY48" s="4"/>
+      <c r="BW48" s="7"/>
+      <c r="BX48" s="7"/>
+      <c r="BY48" s="7"/>
       <c r="BZ48" s="4"/>
-      <c r="CA48" s="4"/>
-      <c r="CB48" s="4"/>
-      <c r="CC48" s="4"/>
+      <c r="CA48" s="7"/>
+      <c r="CB48" s="7"/>
+      <c r="CC48" s="7"/>
       <c r="CD48" s="4"/>
-      <c r="CE48" s="4"/>
-      <c r="CF48" s="4"/>
-      <c r="CG48" s="4"/>
+      <c r="CE48" s="7"/>
+      <c r="CF48" s="7"/>
+      <c r="CG48" s="7"/>
       <c r="CH48" s="4"/>
-      <c r="CI48" s="4"/>
-      <c r="CJ48" s="4"/>
-      <c r="CK48" s="4"/>
+      <c r="CI48" s="7"/>
+      <c r="CJ48" s="7"/>
+      <c r="CK48" s="7"/>
       <c r="CL48" s="4"/>
-      <c r="CM48" s="4"/>
-      <c r="CN48" s="4"/>
-      <c r="CO48" s="4"/>
+      <c r="CM48" s="7"/>
+      <c r="CN48" s="7"/>
+      <c r="CO48" s="7"/>
       <c r="CP48" s="4"/>
       <c r="CT48" s="8"/>
       <c r="CU48" s="9"/>
     </row>
     <row r="49" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ49" s="8"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
       <c r="BV49" s="4"/>
-      <c r="BW49" s="7"/>
-      <c r="BX49" s="7"/>
-      <c r="BY49" s="7"/>
+      <c r="BW49" s="4"/>
+      <c r="BX49" s="4"/>
+      <c r="BY49" s="4"/>
       <c r="BZ49" s="4"/>
-      <c r="CA49" s="7"/>
-      <c r="CB49" s="7"/>
-      <c r="CC49" s="7"/>
+      <c r="CA49" s="4"/>
+      <c r="CB49" s="4"/>
+      <c r="CC49" s="4"/>
       <c r="CD49" s="4"/>
-      <c r="CE49" s="7"/>
-      <c r="CF49" s="7"/>
-      <c r="CG49" s="7"/>
+      <c r="CE49" s="4"/>
+      <c r="CF49" s="4"/>
+      <c r="CG49" s="4"/>
       <c r="CH49" s="4"/>
-      <c r="CI49" s="7"/>
-      <c r="CJ49" s="7"/>
-      <c r="CK49" s="7"/>
+      <c r="CI49" s="4"/>
+      <c r="CJ49" s="4"/>
+      <c r="CK49" s="4"/>
       <c r="CL49" s="4"/>
-      <c r="CM49" s="7"/>
-      <c r="CN49" s="7"/>
-      <c r="CO49" s="7"/>
+      <c r="CM49" s="4"/>
+      <c r="CN49" s="4"/>
+      <c r="CO49" s="4"/>
       <c r="CP49" s="4"/>
       <c r="CT49" s="8"/>
       <c r="CU49" s="9"/>
@@ -2768,9 +3131,27 @@
     </row>
     <row r="52" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ52" s="8"/>
-      <c r="CQ52" s="5"/>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="5"/>
+      <c r="BV52" s="4"/>
+      <c r="BW52" s="7"/>
+      <c r="BX52" s="7"/>
+      <c r="BY52" s="7"/>
+      <c r="BZ52" s="4"/>
+      <c r="CA52" s="7"/>
+      <c r="CB52" s="7"/>
+      <c r="CC52" s="7"/>
+      <c r="CD52" s="4"/>
+      <c r="CE52" s="7"/>
+      <c r="CF52" s="7"/>
+      <c r="CG52" s="7"/>
+      <c r="CH52" s="4"/>
+      <c r="CI52" s="7"/>
+      <c r="CJ52" s="7"/>
+      <c r="CK52" s="7"/>
+      <c r="CL52" s="4"/>
+      <c r="CM52" s="7"/>
+      <c r="CN52" s="7"/>
+      <c r="CO52" s="7"/>
+      <c r="CP52" s="4"/>
       <c r="CT52" s="8"/>
       <c r="CU52" s="9"/>
     </row>
@@ -2792,90 +3173,86 @@
     </row>
     <row r="55" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BJ55" s="8"/>
-      <c r="BK55" s="4"/>
-      <c r="BL55" s="4"/>
-      <c r="BM55" s="4"/>
-      <c r="BN55" s="4"/>
-      <c r="BO55" s="4"/>
-      <c r="BP55" s="4"/>
-      <c r="BQ55" s="4"/>
-      <c r="BR55" s="4"/>
-      <c r="BS55" s="4"/>
-      <c r="BT55" s="4"/>
-      <c r="BU55" s="4"/>
-      <c r="BV55" s="4"/>
-      <c r="BW55" s="4"/>
-      <c r="BX55" s="4"/>
-      <c r="BY55" s="4"/>
-      <c r="BZ55" s="4"/>
-      <c r="CA55" s="4"/>
-      <c r="CB55" s="4"/>
-      <c r="CC55" s="4"/>
-      <c r="CD55" s="4"/>
-      <c r="CE55" s="4"/>
-      <c r="CF55" s="4"/>
-      <c r="CG55" s="4"/>
-      <c r="CH55" s="4"/>
-      <c r="CI55" s="4"/>
-      <c r="CJ55" s="4"/>
-      <c r="CK55" s="4"/>
-      <c r="CL55" s="4"/>
-      <c r="CM55" s="4"/>
-      <c r="CN55" s="4"/>
-      <c r="CO55" s="4"/>
-      <c r="CP55" s="4"/>
-      <c r="CQ55" s="4"/>
-      <c r="CR55" s="4"/>
-      <c r="CS55" s="4"/>
-      <c r="CT55" s="4"/>
-    </row>
-    <row r="56" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="CQ55" s="5"/>
+      <c r="CR55" s="5"/>
+      <c r="CS55" s="5"/>
+      <c r="CT55" s="8"/>
+      <c r="CU55" s="9"/>
+    </row>
+    <row r="56" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ56" s="8"/>
+      <c r="BK56" s="4"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+      <c r="BS56" s="4"/>
+      <c r="BT56" s="4"/>
+      <c r="BU56" s="4"/>
+      <c r="BV56" s="4"/>
+      <c r="BW56" s="4"/>
+      <c r="BX56" s="4"/>
+      <c r="BY56" s="4"/>
+      <c r="BZ56" s="4"/>
+      <c r="CA56" s="4"/>
+      <c r="CB56" s="4"/>
+      <c r="CC56" s="4"/>
+      <c r="CD56" s="4"/>
+      <c r="CE56" s="4"/>
+      <c r="CF56" s="4"/>
+      <c r="CG56" s="4"/>
+      <c r="CH56" s="4"/>
+      <c r="CI56" s="4"/>
+      <c r="CJ56" s="4"/>
+      <c r="CK56" s="4"/>
+      <c r="CL56" s="4"/>
+      <c r="CM56" s="4"/>
+      <c r="CN56" s="4"/>
+      <c r="CO56" s="4"/>
+      <c r="CP56" s="4"/>
+      <c r="CQ56" s="4"/>
+      <c r="CR56" s="4"/>
+      <c r="CS56" s="4"/>
+      <c r="CT56" s="4"/>
+    </row>
     <row r="57" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="BG61" s="4"/>
-      <c r="BH61" s="4"/>
-      <c r="BI61" s="4"/>
-      <c r="BJ61" s="4"/>
-      <c r="BK61" s="4"/>
-      <c r="BL61" s="4"/>
-      <c r="BM61" s="4"/>
-      <c r="BN61" s="4"/>
-      <c r="BO61" s="4"/>
-      <c r="BP61" s="4"/>
-      <c r="BQ61" s="4"/>
-      <c r="BR61" s="4"/>
-      <c r="BS61" s="4"/>
-      <c r="BT61" s="4"/>
-      <c r="BU61" s="4"/>
-    </row>
+    <row r="61" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O62" s="4"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="BG62" s="4"/>
-      <c r="BR62" s="5"/>
-      <c r="BS62" s="5"/>
-      <c r="BT62" s="5"/>
+      <c r="BH62" s="4"/>
+      <c r="BI62" s="4"/>
+      <c r="BJ62" s="4"/>
+      <c r="BK62" s="4"/>
+      <c r="BL62" s="4"/>
+      <c r="BM62" s="4"/>
+      <c r="BN62" s="4"/>
+      <c r="BO62" s="4"/>
+      <c r="BP62" s="4"/>
+      <c r="BQ62" s="4"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="4"/>
+      <c r="BT62" s="4"/>
       <c r="BU62" s="4"/>
     </row>
     <row r="63" spans="15:99" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2904,54 +3281,40 @@
     </row>
     <row r="65" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
       <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="BD65" s="4"/>
-      <c r="BE65" s="4"/>
-      <c r="BF65" s="4"/>
       <c r="BG65" s="4"/>
-      <c r="BK65" s="4"/>
-      <c r="BL65" s="4"/>
-      <c r="BM65" s="4"/>
-      <c r="BN65" s="4"/>
-      <c r="BR65" s="4"/>
-      <c r="BS65" s="4"/>
-      <c r="BT65" s="4"/>
+      <c r="BR65" s="5"/>
+      <c r="BS65" s="5"/>
+      <c r="BT65" s="5"/>
       <c r="BU65" s="4"/>
     </row>
     <row r="66" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O66" s="4"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
       <c r="BD66" s="4"/>
-      <c r="BE66" s="5"/>
-      <c r="BF66" s="5"/>
-      <c r="BG66" s="5"/>
-      <c r="BK66" s="15"/>
-      <c r="BL66" s="15"/>
-      <c r="BM66" s="15"/>
+      <c r="BE66" s="4"/>
+      <c r="BF66" s="4"/>
+      <c r="BG66" s="4"/>
+      <c r="BK66" s="4"/>
+      <c r="BL66" s="4"/>
+      <c r="BM66" s="4"/>
       <c r="BN66" s="4"/>
-      <c r="BR66" s="15"/>
-      <c r="BS66" s="15"/>
-      <c r="BT66" s="15"/>
+      <c r="BR66" s="4"/>
+      <c r="BS66" s="4"/>
+      <c r="BT66" s="4"/>
       <c r="BU66" s="4"/>
     </row>
     <row r="67" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3008,48 +3371,54 @@
     </row>
     <row r="69" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
       <c r="AF69" s="4"/>
       <c r="BD69" s="4"/>
-      <c r="BE69" s="4"/>
-      <c r="BF69" s="4"/>
-      <c r="BG69" s="4"/>
-      <c r="BK69" s="4"/>
-      <c r="BL69" s="4"/>
-      <c r="BM69" s="4"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BK69" s="15"/>
+      <c r="BL69" s="15"/>
+      <c r="BM69" s="15"/>
       <c r="BN69" s="4"/>
-      <c r="BR69" s="4"/>
-      <c r="BS69" s="4"/>
-      <c r="BT69" s="4"/>
+      <c r="BR69" s="15"/>
+      <c r="BS69" s="15"/>
+      <c r="BT69" s="15"/>
       <c r="BU69" s="4"/>
     </row>
     <row r="70" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O70" s="4"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
       <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+      <c r="BF70" s="4"/>
       <c r="BG70" s="4"/>
-      <c r="BK70" s="15"/>
-      <c r="BL70" s="15"/>
-      <c r="BM70" s="15"/>
+      <c r="BK70" s="4"/>
+      <c r="BL70" s="4"/>
+      <c r="BM70" s="4"/>
       <c r="BN70" s="4"/>
-      <c r="BR70" s="15"/>
-      <c r="BS70" s="15"/>
-      <c r="BT70" s="15"/>
+      <c r="BR70" s="4"/>
+      <c r="BS70" s="4"/>
+      <c r="BT70" s="4"/>
       <c r="BU70" s="4"/>
     </row>
     <row r="71" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,42 +3463,42 @@
     </row>
     <row r="73" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
       <c r="AC73" s="4"/>
       <c r="BG73" s="4"/>
-      <c r="BK73" s="4"/>
-      <c r="BL73" s="4"/>
-      <c r="BM73" s="4"/>
+      <c r="BK73" s="15"/>
+      <c r="BL73" s="15"/>
+      <c r="BM73" s="15"/>
       <c r="BN73" s="4"/>
-      <c r="BR73" s="4"/>
-      <c r="BS73" s="4"/>
-      <c r="BT73" s="4"/>
+      <c r="BR73" s="15"/>
+      <c r="BS73" s="15"/>
+      <c r="BT73" s="15"/>
       <c r="BU73" s="4"/>
     </row>
     <row r="74" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O74" s="4"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="BG74" s="4"/>
-      <c r="BK74" s="15"/>
-      <c r="BL74" s="15"/>
-      <c r="BM74" s="15"/>
+      <c r="BK74" s="4"/>
+      <c r="BL74" s="4"/>
+      <c r="BM74" s="4"/>
       <c r="BN74" s="4"/>
-      <c r="BR74" s="15"/>
-      <c r="BS74" s="15"/>
-      <c r="BT74" s="15"/>
+      <c r="BR74" s="4"/>
+      <c r="BS74" s="4"/>
+      <c r="BT74" s="4"/>
       <c r="BU74" s="4"/>
     </row>
     <row r="75" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3174,52 +3543,47 @@
     </row>
     <row r="77" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
       <c r="AC77" s="4"/>
       <c r="BG77" s="4"/>
-      <c r="BK77" s="4"/>
-      <c r="BL77" s="4"/>
-      <c r="BM77" s="4"/>
+      <c r="BK77" s="15"/>
+      <c r="BL77" s="15"/>
+      <c r="BM77" s="15"/>
       <c r="BN77" s="4"/>
-      <c r="BO77" s="18"/>
-      <c r="BP77" s="18"/>
-      <c r="BR77" s="4"/>
-      <c r="BS77" s="4"/>
-      <c r="BT77" s="4"/>
+      <c r="BR77" s="15"/>
+      <c r="BS77" s="15"/>
+      <c r="BT77" s="15"/>
       <c r="BU77" s="4"/>
     </row>
     <row r="78" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O78" s="4"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
       <c r="S78" s="18"/>
       <c r="T78" s="18"/>
       <c r="U78" s="18"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="BG78" s="4"/>
-      <c r="BK78" s="15"/>
-      <c r="BL78" s="15"/>
-      <c r="BM78" s="15"/>
+      <c r="BK78" s="4"/>
+      <c r="BL78" s="4"/>
+      <c r="BM78" s="4"/>
       <c r="BN78" s="4"/>
       <c r="BO78" s="18"/>
       <c r="BP78" s="18"/>
-      <c r="BR78" s="15"/>
-      <c r="BS78" s="15"/>
-      <c r="BT78" s="15"/>
+      <c r="BR78" s="4"/>
+      <c r="BS78" s="4"/>
+      <c r="BT78" s="4"/>
       <c r="BU78" s="4"/>
     </row>
     <row r="79" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3274,48 +3638,61 @@
     </row>
     <row r="81" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
       <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
       <c r="AC81" s="4"/>
       <c r="BG81" s="4"/>
-      <c r="BK81" s="4"/>
-      <c r="BL81" s="4"/>
-      <c r="BM81" s="4"/>
+      <c r="BK81" s="15"/>
+      <c r="BL81" s="15"/>
+      <c r="BM81" s="15"/>
       <c r="BN81" s="4"/>
-      <c r="BR81" s="4"/>
-      <c r="BS81" s="4"/>
-      <c r="BT81" s="4"/>
+      <c r="BO81" s="18"/>
+      <c r="BP81" s="18"/>
+      <c r="BR81" s="15"/>
+      <c r="BS81" s="15"/>
+      <c r="BT81" s="15"/>
       <c r="BU81" s="4"/>
     </row>
     <row r="82" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O82" s="8"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="BG82" s="4"/>
-      <c r="BO82" s="18"/>
-      <c r="BP82" s="18"/>
-      <c r="BR82" s="15"/>
-      <c r="BS82" s="15"/>
-      <c r="BT82" s="15"/>
-      <c r="BU82" s="8"/>
+      <c r="BK82" s="4"/>
+      <c r="BL82" s="4"/>
+      <c r="BM82" s="4"/>
+      <c r="BN82" s="4"/>
+      <c r="BR82" s="4"/>
+      <c r="BS82" s="4"/>
+      <c r="BT82" s="4"/>
+      <c r="BU82" s="4"/>
     </row>
     <row r="83" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O83" s="8"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
       <c r="AC83" s="4"/>
       <c r="BG83" s="4"/>
+      <c r="BO83" s="18"/>
+      <c r="BP83" s="18"/>
       <c r="BR83" s="15"/>
       <c r="BS83" s="15"/>
       <c r="BT83" s="15"/>
@@ -3335,44 +3712,44 @@
     </row>
     <row r="85" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O85" s="8"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
       <c r="AC85" s="4"/>
       <c r="BG85" s="4"/>
-      <c r="BK85" s="4"/>
-      <c r="BL85" s="4"/>
-      <c r="BM85" s="4"/>
-      <c r="BN85" s="4"/>
-      <c r="BO85" s="4"/>
-      <c r="BP85" s="4"/>
-      <c r="BQ85" s="4"/>
-      <c r="BR85" s="4"/>
-      <c r="BS85" s="4"/>
-      <c r="BT85" s="4"/>
+      <c r="BR85" s="15"/>
+      <c r="BS85" s="15"/>
+      <c r="BT85" s="15"/>
       <c r="BU85" s="8"/>
     </row>
     <row r="86" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O86" s="8"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="BG86" s="4"/>
-      <c r="BR86" s="15"/>
-      <c r="BS86" s="15"/>
-      <c r="BT86" s="15"/>
+      <c r="BK86" s="4"/>
+      <c r="BL86" s="4"/>
+      <c r="BM86" s="4"/>
+      <c r="BN86" s="4"/>
+      <c r="BO86" s="4"/>
+      <c r="BP86" s="4"/>
+      <c r="BQ86" s="4"/>
+      <c r="BR86" s="4"/>
+      <c r="BS86" s="4"/>
+      <c r="BT86" s="4"/>
       <c r="BU86" s="8"/>
     </row>
     <row r="87" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O87" s="4"/>
+      <c r="O87" s="8"/>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
@@ -3381,7 +3758,7 @@
       <c r="BR87" s="15"/>
       <c r="BS87" s="15"/>
       <c r="BT87" s="15"/>
-      <c r="BU87" s="4"/>
+      <c r="BU87" s="8"/>
     </row>
     <row r="88" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O88" s="4"/>
@@ -3397,42 +3774,34 @@
     </row>
     <row r="89" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
       <c r="AC89" s="4"/>
       <c r="BG89" s="4"/>
-      <c r="BK89" s="4"/>
-      <c r="BL89" s="4"/>
-      <c r="BM89" s="4"/>
-      <c r="BN89" s="4"/>
-      <c r="BR89" s="4"/>
-      <c r="BS89" s="4"/>
-      <c r="BT89" s="4"/>
+      <c r="BR89" s="15"/>
+      <c r="BS89" s="15"/>
+      <c r="BT89" s="15"/>
       <c r="BU89" s="4"/>
     </row>
     <row r="90" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O90" s="4"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
       <c r="V90" s="4"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="BG90" s="4"/>
-      <c r="BK90" s="15"/>
-      <c r="BL90" s="15"/>
-      <c r="BM90" s="15"/>
+      <c r="BK90" s="4"/>
+      <c r="BL90" s="4"/>
+      <c r="BM90" s="4"/>
       <c r="BN90" s="4"/>
-      <c r="BR90" s="15"/>
-      <c r="BS90" s="15"/>
-      <c r="BT90" s="15"/>
+      <c r="BR90" s="4"/>
+      <c r="BS90" s="4"/>
+      <c r="BT90" s="4"/>
       <c r="BU90" s="4"/>
     </row>
     <row r="91" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3477,42 +3846,42 @@
     </row>
     <row r="93" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
       <c r="AC93" s="4"/>
       <c r="BG93" s="4"/>
-      <c r="BK93" s="4"/>
-      <c r="BL93" s="4"/>
-      <c r="BM93" s="4"/>
+      <c r="BK93" s="15"/>
+      <c r="BL93" s="15"/>
+      <c r="BM93" s="15"/>
       <c r="BN93" s="4"/>
-      <c r="BR93" s="4"/>
-      <c r="BS93" s="4"/>
-      <c r="BT93" s="4"/>
+      <c r="BR93" s="15"/>
+      <c r="BS93" s="15"/>
+      <c r="BT93" s="15"/>
       <c r="BU93" s="4"/>
     </row>
     <row r="94" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O94" s="4"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
       <c r="V94" s="4"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
       <c r="AC94" s="4"/>
       <c r="BG94" s="4"/>
-      <c r="BK94" s="15"/>
-      <c r="BL94" s="15"/>
-      <c r="BM94" s="15"/>
+      <c r="BK94" s="4"/>
+      <c r="BL94" s="4"/>
+      <c r="BM94" s="4"/>
       <c r="BN94" s="4"/>
-      <c r="BR94" s="15"/>
-      <c r="BS94" s="15"/>
-      <c r="BT94" s="15"/>
+      <c r="BR94" s="4"/>
+      <c r="BS94" s="4"/>
+      <c r="BT94" s="4"/>
       <c r="BU94" s="4"/>
     </row>
     <row r="95" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3557,42 +3926,42 @@
     </row>
     <row r="97" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
       <c r="V97" s="4"/>
-      <c r="W97" s="4"/>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
       <c r="AC97" s="4"/>
       <c r="BG97" s="4"/>
-      <c r="BK97" s="4"/>
-      <c r="BL97" s="4"/>
-      <c r="BM97" s="4"/>
+      <c r="BK97" s="15"/>
+      <c r="BL97" s="15"/>
+      <c r="BM97" s="15"/>
       <c r="BN97" s="4"/>
-      <c r="BR97" s="4"/>
-      <c r="BS97" s="4"/>
-      <c r="BT97" s="4"/>
+      <c r="BR97" s="15"/>
+      <c r="BS97" s="15"/>
+      <c r="BT97" s="15"/>
       <c r="BU97" s="4"/>
     </row>
     <row r="98" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O98" s="4"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
       <c r="AC98" s="4"/>
       <c r="BG98" s="4"/>
-      <c r="BK98" s="15"/>
-      <c r="BL98" s="15"/>
-      <c r="BM98" s="15"/>
+      <c r="BK98" s="4"/>
+      <c r="BL98" s="4"/>
+      <c r="BM98" s="4"/>
       <c r="BN98" s="4"/>
-      <c r="BR98" s="15"/>
-      <c r="BS98" s="15"/>
-      <c r="BT98" s="15"/>
+      <c r="BR98" s="4"/>
+      <c r="BS98" s="4"/>
+      <c r="BT98" s="4"/>
       <c r="BU98" s="4"/>
     </row>
     <row r="99" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,54 +4006,48 @@
     </row>
     <row r="101" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
       <c r="AC101" s="4"/>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="BD101" s="4"/>
-      <c r="BE101" s="4"/>
-      <c r="BF101" s="4"/>
       <c r="BG101" s="4"/>
-      <c r="BK101" s="4"/>
-      <c r="BL101" s="4"/>
-      <c r="BM101" s="4"/>
+      <c r="BK101" s="15"/>
+      <c r="BL101" s="15"/>
+      <c r="BM101" s="15"/>
       <c r="BN101" s="4"/>
-      <c r="BR101" s="4"/>
-      <c r="BS101" s="4"/>
-      <c r="BT101" s="4"/>
+      <c r="BR101" s="15"/>
+      <c r="BS101" s="15"/>
+      <c r="BT101" s="15"/>
       <c r="BU101" s="4"/>
     </row>
     <row r="102" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O102" s="4"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
       <c r="BD102" s="4"/>
-      <c r="BE102" s="5"/>
-      <c r="BF102" s="5"/>
-      <c r="BG102" s="5"/>
-      <c r="BK102" s="15"/>
-      <c r="BL102" s="15"/>
-      <c r="BM102" s="15"/>
+      <c r="BE102" s="4"/>
+      <c r="BF102" s="4"/>
+      <c r="BG102" s="4"/>
+      <c r="BK102" s="4"/>
+      <c r="BL102" s="4"/>
+      <c r="BM102" s="4"/>
       <c r="BN102" s="4"/>
-      <c r="BR102" s="15"/>
-      <c r="BS102" s="15"/>
-      <c r="BT102" s="15"/>
+      <c r="BR102" s="4"/>
+      <c r="BS102" s="4"/>
+      <c r="BT102" s="4"/>
       <c r="BU102" s="4"/>
     </row>
     <row r="103" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3741,40 +4104,54 @@
     </row>
     <row r="105" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
       <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
       <c r="AF105" s="4"/>
       <c r="BD105" s="4"/>
-      <c r="BE105" s="4"/>
-      <c r="BF105" s="4"/>
-      <c r="BG105" s="4"/>
-      <c r="BK105" s="4"/>
-      <c r="BL105" s="4"/>
-      <c r="BM105" s="4"/>
+      <c r="BE105" s="5"/>
+      <c r="BF105" s="5"/>
+      <c r="BG105" s="5"/>
+      <c r="BK105" s="15"/>
+      <c r="BL105" s="15"/>
+      <c r="BM105" s="15"/>
       <c r="BN105" s="4"/>
-      <c r="BR105" s="4"/>
-      <c r="BS105" s="4"/>
-      <c r="BT105" s="4"/>
+      <c r="BR105" s="15"/>
+      <c r="BS105" s="15"/>
+      <c r="BT105" s="15"/>
       <c r="BU105" s="4"/>
     </row>
     <row r="106" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O106" s="4"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
       <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
+      <c r="BD106" s="4"/>
+      <c r="BE106" s="4"/>
+      <c r="BF106" s="4"/>
       <c r="BG106" s="4"/>
-      <c r="BR106" s="5"/>
-      <c r="BS106" s="5"/>
-      <c r="BT106" s="5"/>
+      <c r="BK106" s="4"/>
+      <c r="BL106" s="4"/>
+      <c r="BM106" s="4"/>
+      <c r="BN106" s="4"/>
+      <c r="BR106" s="4"/>
+      <c r="BS106" s="4"/>
+      <c r="BT106" s="4"/>
       <c r="BU106" s="4"/>
     </row>
     <row r="107" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3803,37 +4180,48 @@
     </row>
     <row r="109" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
-      <c r="Z109" s="4"/>
-      <c r="AA109" s="4"/>
-      <c r="AB109" s="4"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
       <c r="AC109" s="4"/>
       <c r="BG109" s="4"/>
-      <c r="BH109" s="4"/>
-      <c r="BI109" s="4"/>
-      <c r="BJ109" s="4"/>
-      <c r="BK109" s="4"/>
-      <c r="BL109" s="4"/>
-      <c r="BM109" s="4"/>
-      <c r="BN109" s="4"/>
-      <c r="BO109" s="4"/>
-      <c r="BP109" s="4"/>
-      <c r="BQ109" s="4"/>
-      <c r="BR109" s="4"/>
-      <c r="BS109" s="4"/>
-      <c r="BT109" s="4"/>
+      <c r="BR109" s="5"/>
+      <c r="BS109" s="5"/>
+      <c r="BT109" s="5"/>
       <c r="BU109" s="4"/>
     </row>
-    <row r="110" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+      <c r="BG110" s="4"/>
+      <c r="BH110" s="4"/>
+      <c r="BI110" s="4"/>
+      <c r="BJ110" s="4"/>
+      <c r="BK110" s="4"/>
+      <c r="BL110" s="4"/>
+      <c r="BM110" s="4"/>
+      <c r="BN110" s="4"/>
+      <c r="BO110" s="4"/>
+      <c r="BP110" s="4"/>
+      <c r="BQ110" s="4"/>
+      <c r="BR110" s="4"/>
+      <c r="BS110" s="4"/>
+      <c r="BT110" s="4"/>
+      <c r="BU110" s="4"/>
+    </row>
     <row r="111" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="15:73" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/map0.xlsx
+++ b/map0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpit\coding\twiet\schoolSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067AF733-69D3-4270-892D-F5D23C4C1CAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5BD82-8652-4061-A88F-C37972E0A590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7185" yWindow="1035" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -407,8 +407,8 @@
   </sheetPr>
   <dimension ref="G1:CU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="BA48" sqref="BA48"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="400" workbookViewId="0">
+      <selection activeCell="CV1" sqref="CV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
